--- a/Warship.Demo/Template/合同导入模板.xlsx
+++ b/Warship.Demo/Template/合同导入模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView windowWidth="19680" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19680" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="合同" sheetId="1" r:id="rId1"/>
@@ -18,33 +18,62 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
     <author>yank</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="1">
-      <text>
-        <t xml:space="preserve">合同编码必填</t>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="1">
-      <text>
-        <t xml:space="preserve">合同编码必填</t>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="1">
-      <text>
-        <t xml:space="preserve">合同编码必填</t>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="1">
+    <comment ref="B3" authorId="0">
       <text>
         <t xml:space="preserve">合同名称必填</t>
       </text>
     </comment>
-    <comment ref="B8" authorId="1">
+    <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">合同编码必填</t>
+        <t xml:space="preserve">合同金额必须在0~100</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <t xml:space="preserve">合同名称必填</t>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <t xml:space="preserve">合同金额必须在0~100</t>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <t xml:space="preserve">合同金额必填</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0">
+      <text>
+        <t xml:space="preserve">合同名称必填</t>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0">
+      <text>
+        <t xml:space="preserve">合同金额必填</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <t xml:space="preserve">合同名称必填</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <t xml:space="preserve">合同金额必填</t>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <t xml:space="preserve">合同名称必填</t>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <t xml:space="preserve">合同金额必填</t>
       </text>
     </comment>
   </commentList>
@@ -54,28 +83,63 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
     <author>yank</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="1">
+    <comment ref="C5" authorId="0">
       <text>
-        <t xml:space="preserve">数量必填</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">数量必填</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="1">
+    <comment ref="D5" authorId="0">
       <text>
-        <t xml:space="preserve">单价（含税）必填</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">单价（含税）必填</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1">
+    <comment ref="C6" authorId="0">
       <text>
-        <t xml:space="preserve">数量必填</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">数量必填</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="1">
+    <comment ref="D6" authorId="0">
       <text>
-        <t xml:space="preserve">单价（含税）必填</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">单价（含税）必填</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -83,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve">合同名称必填，合同编码必填！</t>
   </si>
@@ -186,6 +250,10 @@
   <si>
     <t xml:space="preserve">F</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">合同金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -274,9 +342,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyBorder="1" applyFill="1" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -308,6 +377,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
@@ -350,229 +431,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
       <protection locked="0" hidden="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="1" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyAlignment="1" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyBorder="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <protection locked="0" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0"/>
@@ -610,7 +489,7 @@
         <xdr:cNvPr id="1026" name="Text Box 2" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F396EC-94C0-4BF1-BC12-BD7F53572CF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43F396EC-94C0-4BF1-BC12-BD7F53572CF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -659,7 +538,7 @@
         <xdr:cNvPr id="1027" name="Text Box 3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792DA9BA-8E93-4886-B588-6D66402FA367}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{792DA9BA-8E93-4886-B588-6D66402FA367}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -708,7 +587,7 @@
         <xdr:cNvPr id="1035" name="Rectangle 11" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BAD1DE-533F-478A-94F1-DA4A608A05C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42BAD1DE-533F-478A-94F1-DA4A608A05C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +636,7 @@
         <xdr:cNvPr id="1037" name="Text Box 13" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCD35E1-ABA0-4F91-8B3F-94248C222654}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CCCD35E1-ABA0-4F91-8B3F-94248C222654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,7 +685,7 @@
         <xdr:cNvPr id="2" name="Text Box 3" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1ED5BE-26E8-49BD-82A1-F79135B6D61B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E1ED5BE-26E8-49BD-82A1-F79135B6D61B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -818,6 +697,49 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="in">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4411980</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 11" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,7 +782,7 @@
         <xdr:cNvPr id="2052" name="Text Box 4" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3426E904-044D-46B8-A411-6DFCF36D72D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3426E904-044D-46B8-A411-6DFCF36D72D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -909,7 +831,7 @@
         <xdr:cNvPr id="2055" name="Text Box 7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D61855-5BDD-4713-8CF5-53CB42DE9ACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D61855-5BDD-4713-8CF5-53CB42DE9ACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +880,7 @@
         <xdr:cNvPr id="2" name="Rectangle 7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCD2DBF-2075-4E8E-BEC4-0AD814437FF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BCD2DBF-2075-4E8E-BEC4-0AD814437FF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +929,7 @@
         <xdr:cNvPr id="2061" name="Text Box 13" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15513740-3540-4ECA-A3E2-2643D8733320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15513740-3540-4ECA-A3E2-2643D8733320}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +978,7 @@
         <xdr:cNvPr id="3" name="Text Box 7" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C009599A-4B53-4604-B090-F4B637409F76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C009599A-4B53-4604-B090-F4B637409F76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,6 +990,49 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="in">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,72 +1342,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.75" style="0" customWidth="1"/>
-    <col min="2" max="2" width="69" style="0" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="0" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="0" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="70.15" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" ht="70.2" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="41"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="4"/>
+      <c r="C3">
+        <v>9999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="6"/>
+      <c r="C4">
+        <v>-10000</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="C5"/>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="10"/>
+      <c r="C6"/>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="C7"/>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="77"/>
+      <c r="B8" s="14"/>
+      <c r="C8"/>
     </row>
   </sheetData>
-  <sheetProtection password="ce6a" sheet="1" objects="1" scenarios="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertRows="1" insertHyperlinks="1" deleteColumns="1" deleteRows="1" selectLockedCells="0" sort="1" autoFilter="1" pivotTables="1" selectUnlockedCells="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -1450,7 +1428,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1458,17 +1436,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.625" style="0" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="0" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="0" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="0" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="0" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="0" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="0" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="0" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="0" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1492,87 +1470,87 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="19">
         <v>43101</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="24">
         <v>2</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="25">
         <v>43102</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="30">
         <v>3</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="31">
         <v>43103</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection password="ce6a" sheet="1" objects="1" scenarios="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertRows="1" insertHyperlinks="1" deleteColumns="1" deleteRows="1" selectLockedCells="0" sort="1" autoFilter="1" pivotTables="1" selectUnlockedCells="0"/>
+  <sheetProtection password="CE6A" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="0" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="0"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations disablePrompts="0" count="22">
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D2:D4">
@@ -1588,7 +1566,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E2">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D3">
@@ -1596,7 +1574,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E3">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D4">
@@ -1604,7 +1582,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E4">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D5">
@@ -1612,7 +1590,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E5">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D6">
@@ -1620,7 +1598,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E6">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D2">
@@ -1628,7 +1606,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E2">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D3">
@@ -1636,7 +1614,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E3">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D4">
@@ -1644,7 +1622,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E4">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D5">
@@ -1652,7 +1630,7 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E5">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须在0~9999999999之间。" sqref="D6">
@@ -1660,14 +1638,14 @@
       <formula2><![CDATA[9999999999]]></formula2>
     </dataValidation>
     <dataValidation type="date" errorStyle="stop" imeMode="noControl" operator="between" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="0" errorTitle="输入不合法" error="必须为日期" sqref="E6">
-      <formula1><![CDATA[0001-01-01]]></formula1>
+      <formula1><![CDATA[1-1-1]]></formula1>
       <formula2><![CDATA[9999-12-31]]></formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1677,7 +1655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
